--- a/Mini Project 1/Test_Result.xlsx
+++ b/Mini Project 1/Test_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eeb1337d597c500e/Documents/Rensselaer Polytechnic Institute/ECSE4961/Assignments/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FB29314-FF67-43F2-9FD1-CE3A19EEB0A6}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{796CEB15-C14D-4956-8844-5390E81F0CA3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Results</c:v>
+                  <c:v>Float Results</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Traditional</c:v>
@@ -303,34 +303,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.92200000000000004</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.274</c:v>
+                  <c:v>4.8360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.497</c:v>
+                  <c:v>16.401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.412999999999997</c:v>
+                  <c:v>38.927999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.705</c:v>
+                  <c:v>76.033000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.93</c:v>
+                  <c:v>131.85900000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>305.39100000000002</c:v>
+                  <c:v>208.809</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>457.29199999999997</c:v>
+                  <c:v>312.774</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>649.27499999999998</c:v>
+                  <c:v>443.23700000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>870.35799999999995</c:v>
+                  <c:v>609.21199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -350,7 +350,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Results</c:v>
+                  <c:v>Float Results</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimized</c:v>
@@ -647,7 +647,544 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Int</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Results</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traditional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>int 1000*1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>int 2000*2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>int 3000*3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>int 4000*4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>int 5000*5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>int 6000*6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>int 7000*7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>int 8000*8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>int 9000*9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>int 10000*10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.312999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.896999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202.16900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>303.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436.89699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>595.43100000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47A5-4613-8BA7-2A9F0F316E5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Results</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>int 1000*1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>int 2000*2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>int 3000*3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>int 4000*4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>int 5000*5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>int 6000*6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>int 7000*7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>int 8000*8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>int 9000*9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>int 10000*10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47A5-4613-8BA7-2A9F0F316E5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="987328191"/>
+        <c:axId val="987327775"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="987328191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="987327775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="987327775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="987328191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1190,6 +1727,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1223,6 +2263,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC7F4B7-F61E-45E1-B9A9-F283C1D21320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1497,7 +2573,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1538,7 +2614,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.9720000000000004</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1549,7 +2625,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>16.312999999999999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1560,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>37.896999999999998</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1571,7 +2647,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>73.917000000000002</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1582,7 +2658,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>127.797</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1593,7 +2669,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>202.16900000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1604,7 +2680,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>303.73099999999999</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1615,7 +2691,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>436.89699999999999</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1626,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>595.43100000000004</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1652,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>0.92200000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1663,7 +2739,7 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>7.274</v>
+        <v>4.8360000000000003</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1674,7 +2750,7 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>24.497</v>
+        <v>16.401</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1685,7 +2761,7 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>57.412999999999997</v>
+        <v>38.927999999999997</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1696,7 +2772,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>111.705</v>
+        <v>76.033000000000001</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1707,7 +2783,7 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>192.93</v>
+        <v>131.85900000000001</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1718,7 +2794,7 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>305.39100000000002</v>
+        <v>208.809</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1729,7 +2805,7 @@
         <v>11</v>
       </c>
       <c r="B31">
-        <v>457.29199999999997</v>
+        <v>312.774</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1740,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>649.27499999999998</v>
+        <v>443.23700000000002</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1751,7 +2827,7 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>870.35799999999995</v>
+        <v>609.21199999999999</v>
       </c>
       <c r="C33">
         <v>0</v>

--- a/Mini Project 1/Test_Result.xlsx
+++ b/Mini Project 1/Test_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eeb1337d597c500e/Documents/Rensselaer Polytechnic Institute/ECSE4961/Assignments/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{796CEB15-C14D-4956-8844-5390E81F0CA3}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD198D64-7C3C-402F-8694-FFE822FA90D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,34 +303,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.61</c:v>
+                  <c:v>12.996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8360000000000003</c:v>
+                  <c:v>143.416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.401</c:v>
+                  <c:v>525.69100000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.927999999999997</c:v>
+                  <c:v>1291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.033000000000001</c:v>
+                  <c:v>2501.4899999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131.85900000000001</c:v>
+                  <c:v>4548.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>208.809</c:v>
+                  <c:v>7672.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>312.774</c:v>
+                  <c:v>12690.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>443.23700000000002</c:v>
+                  <c:v>15473.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>609.21199999999999</c:v>
+                  <c:v>21847.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,34 +413,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.28799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.3090000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.6059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>18.337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>35.377000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>61.180999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>98.058999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>145.06100000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>208.05600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>284.27199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,34 +800,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.58199999999999996</c:v>
+                  <c:v>6.8819999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9720000000000004</c:v>
+                  <c:v>85.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.312999999999999</c:v>
+                  <c:v>333.01799999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.896999999999998</c:v>
+                  <c:v>789.91800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.917000000000002</c:v>
+                  <c:v>1627.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.797</c:v>
+                  <c:v>2856.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>202.16900000000001</c:v>
+                  <c:v>4621.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>303.73099999999999</c:v>
+                  <c:v>7539.79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>436.89699999999999</c:v>
+                  <c:v>10565.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>595.43100000000004</c:v>
+                  <c:v>15214.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,34 +910,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.27100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2480000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.6920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>18.297000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>35.773000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>61.57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>99.034999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>147.494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>207.58099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>284.93200000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,7 +2573,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,10 +2603,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.58199999999999996</v>
+        <v>6.8819999999999997</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2614,10 +2614,10 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>4.9720000000000004</v>
+        <v>85.85</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.2480000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2625,10 +2625,10 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>16.312999999999999</v>
+        <v>333.01799999999997</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.6920000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2636,10 +2636,10 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>37.896999999999998</v>
+        <v>789.91800000000001</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>18.297000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2647,10 +2647,10 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>73.917000000000002</v>
+        <v>1627.98</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>35.773000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2658,10 +2658,10 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>127.797</v>
+        <v>2856.81</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>61.57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2669,10 +2669,10 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>202.16900000000001</v>
+        <v>4621.21</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>99.034999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2680,10 +2680,10 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>303.73099999999999</v>
+        <v>7539.79</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>147.494</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2691,10 +2691,10 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>436.89699999999999</v>
+        <v>10565.2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>207.58099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2702,10 +2702,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>595.43100000000004</v>
+        <v>15214.2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>284.93200000000002</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2728,10 +2728,10 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>0.61</v>
+        <v>12.996</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,10 +2739,10 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>4.8360000000000003</v>
+        <v>143.416</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2.3090000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2750,10 +2750,10 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>16.401</v>
+        <v>525.69100000000003</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>7.6059999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,10 +2761,10 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>38.927999999999997</v>
+        <v>1291</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>18.337</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2772,10 +2772,10 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>76.033000000000001</v>
+        <v>2501.4899999999998</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>35.377000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2783,10 +2783,10 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>131.85900000000001</v>
+        <v>4548.29</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>61.180999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2794,10 +2794,10 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>208.809</v>
+        <v>7672.94</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>98.058999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2805,10 +2805,10 @@
         <v>11</v>
       </c>
       <c r="B31">
-        <v>312.774</v>
+        <v>12690.1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>145.06100000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2816,10 +2816,10 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>443.23700000000002</v>
+        <v>15473.2</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>208.05600000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2827,10 +2827,10 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>609.21199999999999</v>
+        <v>21847.8</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>284.27199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Mini Project 1/Test_Result.xlsx
+++ b/Mini Project 1/Test_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eeb1337d597c500e/Documents/Rensselaer Polytechnic Institute/ECSE4961/Assignments/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD198D64-7C3C-402F-8694-FFE822FA90D5}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6E578876-397C-43DC-92CF-8A53CA531497}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>float 8000*8000</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>float 7000*7000</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Float Results</t>
+  </si>
+  <si>
+    <t>Short Results</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Float Results</a:t>
+              <a:t>Float</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -236,13 +236,10 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$B$22:$B$23</c:f>
+              <c:f>Results!$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Float Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>Traditional</c:v>
                 </c:pt>
               </c:strCache>
@@ -337,7 +334,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72EB-4D19-8CC2-8C6F498BF18F}"/>
+              <c16:uniqueId val="{00000000-7FAB-4FDB-B9A8-C2B887158139}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -346,13 +343,10 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$C$22:$C$23</c:f>
+              <c:f>Results!$C$23</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Float Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>Optimized</c:v>
                 </c:pt>
               </c:strCache>
@@ -447,7 +441,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-72EB-4D19-8CC2-8C6F498BF18F}"/>
+              <c16:uniqueId val="{00000001-7FAB-4FDB-B9A8-C2B887158139}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -461,11 +455,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1752669616"/>
-        <c:axId val="1752670032"/>
+        <c:axId val="2069394176"/>
+        <c:axId val="2069386272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1752669616"/>
+        <c:axId val="2069394176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1752670032"/>
+        <c:crossAx val="2069386272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -516,8 +510,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1752670032"/>
+        <c:axId val="2069386272"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -567,7 +562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1752669616"/>
+        <c:crossAx val="2069394176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -682,13 +677,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Int</a:t>
+              <a:t>Short</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Results</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -733,13 +723,10 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$B$1:$B$2</c:f>
+              <c:f>Results!$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>Traditional</c:v>
                 </c:pt>
               </c:strCache>
@@ -834,7 +821,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-47A5-4613-8BA7-2A9F0F316E5A}"/>
+              <c16:uniqueId val="{00000000-090B-4FFB-9F10-C530CF1C5C1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -843,13 +830,10 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$C$1:$C$2</c:f>
+              <c:f>Results!$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>Optimized</c:v>
                 </c:pt>
               </c:strCache>
@@ -944,7 +928,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-47A5-4613-8BA7-2A9F0F316E5A}"/>
+              <c16:uniqueId val="{00000001-090B-4FFB-9F10-C530CF1C5C1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -958,11 +942,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="987328191"/>
-        <c:axId val="987327775"/>
+        <c:axId val="172113184"/>
+        <c:axId val="172110272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="987328191"/>
+        <c:axId val="172113184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987327775"/>
+        <c:crossAx val="172110272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1013,8 +997,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="987327775"/>
+        <c:axId val="172110272"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1064,7 +1049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987328191"/>
+        <c:crossAx val="172113184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2234,23 +2219,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765302C7-A0F9-407B-9DBC-EA208EBCCBBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CC253B-92BE-4C00-87D9-7B5FAFD8C91E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,22 +2256,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>128587</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC7F4B7-F61E-45E1-B9A9-F283C1D21320}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E376126-A025-4BA3-8D82-101FBF084657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2558,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,7 +2570,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2611,7 +2596,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>85.85</v>
@@ -2622,7 +2607,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>333.01799999999997</v>
@@ -2633,7 +2618,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>789.91800000000001</v>
@@ -2644,7 +2629,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>1627.98</v>
@@ -2655,7 +2640,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2856.81</v>
@@ -2666,7 +2651,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>4621.21</v>
@@ -2677,7 +2662,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>7539.79</v>
@@ -2688,7 +2673,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>10565.2</v>
@@ -2710,7 +2695,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2780,7 +2765,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4548.29</v>
@@ -2791,7 +2776,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>7672.94</v>

--- a/Mini Project 1/Test_Result.xlsx
+++ b/Mini Project 1/Test_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eeb1337d597c500e/Documents/Rensselaer Polytechnic Institute/ECSE4961/Assignments/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6E578876-397C-43DC-92CF-8A53CA531497}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D9FBE490-3FC4-429F-888A-3568EF985A94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>Optimized</t>
-  </si>
-  <si>
-    <t>int 1000*1000</t>
-  </si>
-  <si>
-    <t>int 10000*10000</t>
   </si>
   <si>
     <t>float 1000*1000</t>
@@ -70,34 +64,40 @@
     <t>float 6000*6000</t>
   </si>
   <si>
-    <t>int 2000*2000</t>
-  </si>
-  <si>
-    <t>int 3000*3000</t>
-  </si>
-  <si>
-    <t>int 4000*4000</t>
-  </si>
-  <si>
-    <t>int 5000*5000</t>
-  </si>
-  <si>
-    <t>int 6000*6000</t>
-  </si>
-  <si>
-    <t>int 7000*7000</t>
-  </si>
-  <si>
-    <t>int 8000*8000</t>
-  </si>
-  <si>
-    <t>int 9000*9000</t>
-  </si>
-  <si>
     <t>Float Results</t>
   </si>
   <si>
     <t>Short Results</t>
+  </si>
+  <si>
+    <t>short 1000*1000</t>
+  </si>
+  <si>
+    <t>short 2000*2000</t>
+  </si>
+  <si>
+    <t>short 3000*3000</t>
+  </si>
+  <si>
+    <t>short 4000*4000</t>
+  </si>
+  <si>
+    <t>short 5000*5000</t>
+  </si>
+  <si>
+    <t>short 6000*6000</t>
+  </si>
+  <si>
+    <t>short 7000*7000</t>
+  </si>
+  <si>
+    <t>short 8000*8000</t>
+  </si>
+  <si>
+    <t>short 9000*9000</t>
+  </si>
+  <si>
+    <t>short 10000*10000</t>
   </si>
 </sst>
 </file>
@@ -748,34 +748,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>int 1000*1000</c:v>
+                  <c:v>short 1000*1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>int 2000*2000</c:v>
+                  <c:v>short 2000*2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>int 3000*3000</c:v>
+                  <c:v>short 3000*3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>int 4000*4000</c:v>
+                  <c:v>short 4000*4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>int 5000*5000</c:v>
+                  <c:v>short 5000*5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>int 6000*6000</c:v>
+                  <c:v>short 6000*6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>int 7000*7000</c:v>
+                  <c:v>short 7000*7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>int 8000*8000</c:v>
+                  <c:v>short 8000*8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>int 9000*9000</c:v>
+                  <c:v>short 9000*9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>int 10000*10000</c:v>
+                  <c:v>short 10000*10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -855,34 +855,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>int 1000*1000</c:v>
+                  <c:v>short 1000*1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>int 2000*2000</c:v>
+                  <c:v>short 2000*2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>int 3000*3000</c:v>
+                  <c:v>short 3000*3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>int 4000*4000</c:v>
+                  <c:v>short 4000*4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>int 5000*5000</c:v>
+                  <c:v>short 5000*5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>int 6000*6000</c:v>
+                  <c:v>short 6000*6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>int 7000*7000</c:v>
+                  <c:v>short 7000*7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>int 8000*8000</c:v>
+                  <c:v>short 8000*8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>int 9000*9000</c:v>
+                  <c:v>short 9000*9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>int 10000*10000</c:v>
+                  <c:v>short 10000*10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2558,7 +2558,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,7 +2570,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>6.8819999999999997</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>85.85</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>333.01799999999997</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>789.91800000000001</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1627.98</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2856.81</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>4621.21</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>7539.79</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>10565.2</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>15214.2</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>12.996</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>143.416</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>525.69100000000003</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>1291</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>2501.4899999999998</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>4548.29</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>7672.94</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>12690.1</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>15473.2</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>21847.8</v>
